--- a/src/algoritms/test.xlsx
+++ b/src/algoritms/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A820"/>
+  <dimension ref="A1:A1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2897,7 +2897,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>НВЗ-Н25-МР32</t>
+          <t>НВЗ-Н32-МР25</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>НВЗ-Н32-МР25</t>
+          <t>НВЗ-Н32-МР32</t>
         </is>
       </c>
     </row>
@@ -2923,14 +2923,14 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>НВЗ-Н32-МР32</t>
-        </is>
-      </c>
+      <c r="A360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr"/>
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>НВЗ-Н32-МР38</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -2942,7 +2942,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>НВЗ-Н32-МР38</t>
+          <t>НВЗ-Н32-МР40</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>НВЗ-Н32-МР40</t>
+          <t>НВЗ-Н40-МР32</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>НВЗ-Н40-МР32</t>
+          <t>НВЗ-Н40-МР38</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>НВЗ-Н40-МР38</t>
+          <t>НВЗ-Н40-МР40</t>
         </is>
       </c>
     </row>
@@ -2996,92 +2996,92 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>НВЗ-Н40-МР40</t>
-        </is>
-      </c>
+      <c r="A371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr"/>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr"/>
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Н12-МР10</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н12-МР10</t>
+          <t>ЛВЗ-Н16-МР12</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н16-МР12</t>
+          <t>ЛВЗ-Н20-МР15</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-МР15</t>
+          <t>ЛВЗ-Н20-МР16</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-МР16</t>
+          <t>ЛВЗ-Н20-МР18</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-МР18</t>
+          <t>ЛВЗ-Н20-МР20</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-МР20</t>
+          <t>ЛВЗ-Н20-МР22</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-МР22</t>
+          <t>ЛВЗ-Н20-МР25</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-МР25</t>
+          <t>ЛВЗ-Н25-МР15</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР15</t>
+          <t>ЛВЗ-Н25-МР16</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР16</t>
+          <t>ЛВЗ-Н25-МР18</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР18</t>
+          <t>ЛВЗ-Н25-МР20</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР20</t>
+          <t>ЛВЗ-Н25-МР22</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР22</t>
+          <t>ЛВЗ-Н25-МР25</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР25</t>
+          <t>ЛВЗ-Н25-МР32</t>
         </is>
       </c>
     </row>
@@ -3137,1395 +3137,2634 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР32</t>
+          <t>ЛВЗ-Н32-МР25</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-МР32</t>
+          <t>ЛВЗ-Н32-МР25</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР25</t>
+          <t>ЛВЗ-Н32-МР32</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР25</t>
+          <t>ЛВЗ-Н32-МР32</t>
         </is>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>ЛВЗ-Н32-МР32</t>
-        </is>
-      </c>
+      <c r="A396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР32</t>
+          <t>ЛВЗ-Н32-МР38</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr"/>
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Н32-МР38</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР38</t>
+          <t>ЛВЗ-Н32-МР40</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР38</t>
+          <t>ЛВЗ-Н32-МР40</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР40</t>
+          <t>ЛВЗ-Н40-МР32</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-МР40</t>
+          <t>ЛВЗ-Н40-МР32</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н40-МР32</t>
+          <t>ЛВЗ-Н40-МР38</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н40-МР32</t>
+          <t>ЛВЗ-Н40-МР38</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н40-МР38</t>
+          <t>ЛВЗ-Н40-МР40</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н40-МР38</t>
+          <t>ЛВЗ-Н40-МР40</t>
         </is>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>ЛВЗ-Н40-МР40</t>
-        </is>
-      </c>
+      <c r="A407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>ЛВЗ-Н40-МР40</t>
-        </is>
-      </c>
+      <c r="A408" t="inlineStr"/>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr"/>
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н12-МР10</t>
+        </is>
+      </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr"/>
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н16-МР12</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ОВЗ-Н12-МР10</t>
+          <t>ОВЗ-Н20-МР15</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ОВЗ-Н16-МР12</t>
+          <t>ОВЗ-Н20-МР16</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ОВЗ-Н20-МР15</t>
+          <t>ОВЗ-Н20-МР18</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ОВЗ-Н20-МР16</t>
+          <t>ОВЗ-Н20-МР20</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ОВЗ-Н20-МР18</t>
+          <t>ОВЗ-Н20-МР22</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ОВЗ-Н20-МР20</t>
+          <t>ОВЗ-Н20-МР25</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ОВЗ-Н20-МР22</t>
+          <t>ОВЗ-Н25-МР15</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ОВЗ-Н20-МР25</t>
+          <t>ОВЗ-Н25-МР16</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР15</t>
+          <t>ОВЗ-Н25-МР18</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР16</t>
+          <t>ОВЗ-Н25-МР20</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР18</t>
+          <t>ОВЗ-Н25-МР20</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР20</t>
+          <t>ОВЗ-Н25-МР22</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР20</t>
+          <t>ОВЗ-Н25-МР22</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР22</t>
+          <t>ОВЗ-Н25-МР25</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР22</t>
+          <t>ОВЗ-Н25-МР25</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР25</t>
+          <t>ОВЗ-Н25-МР32</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР25</t>
+          <t>ОВЗ-Н25-МР32</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР32</t>
+          <t>ОВЗ-Н32-МР25</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР32</t>
+          <t>ОВЗ-Н32-МР25</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ОВЗ-Н25-МР32</t>
+          <t>ОВЗ-Н32-МР32</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР25</t>
+          <t>ОВЗ-Н32-МР32</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>ОВЗ-Н32-МР25</t>
-        </is>
-      </c>
+      <c r="A432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР32</t>
+          <t>ОВЗ-Н32-МР38</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР32</t>
+          <t>ОВЗ-Н32-МР38</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr"/>
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н32-МР40</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР38</t>
+          <t>ОВЗ-Н32-МР40</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР38</t>
+          <t>ОВЗ-Н40-МР32</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР40</t>
+          <t>ОВЗ-Н40-МР32</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ОВЗ-Н32-МР40</t>
+          <t>ОВЗ-Н40-МР38</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ОВЗ-Н40-МР32</t>
+          <t>ОВЗ-Н40-МР38</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ОВЗ-Н40-МР32</t>
+          <t>ОВЗ-Н40-МР40</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ОВЗ-Н40-МР38</t>
+          <t>ОВЗ-Н40-МР40</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>ОВЗ-Н40-МР38</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>ОВЗ-Н40-МР40</t>
-        </is>
-      </c>
+      <c r="A444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ОВЗ-Н40-МР40</t>
+          <t>ВЗ-Н12-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr"/>
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>ВЗ-Н16-Т3/8G(В)</t>
+        </is>
+      </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr"/>
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>ВЗ-Н16-Т1/2G(В)</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ВЗ-Н12-Т1/2G(В)</t>
+          <t>ВЗ-Н20-Т1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ВЗ-Н16-Т3/8G(В)</t>
+          <t>ВЗ-Н20-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ВЗ-Н16-Т1/2G(В)</t>
+          <t>ВЗ-Н20-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ВЗ-Н20-Т1/4G(В)</t>
+          <t>ВЗ-Н20-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ВЗ-Н20-Т1/2G(В)</t>
+          <t>ВЗ-Н25-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ВЗ-Н20-Т3/4G(В)</t>
+          <t>ВЗ-Н25-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ВЗ-Н20-Т1G(В)</t>
+          <t>ВЗ-Н25-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ВЗ-Н25-Т1/2G(В)</t>
+          <t>ВЗ-Н32-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ВЗ-Н25-Т3/4G(В)</t>
+          <t>ВЗ-Н32-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ВЗ-Н25-Т1G(В)</t>
+          <t>ВЗ-Н32-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ВЗ-Н32-Т1/2G(В)</t>
+          <t>ВЗ-Н32-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ВЗ-Н32-Т3/4G(В)</t>
+          <t>ВЗ-Н40-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ВЗ-Н32-Т1G(В)</t>
+          <t>ВЗ-Н40-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ВЗ-Н32-Т1.1/4G(В)</t>
+          <t>ВЗ-Н50-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ВЗ-Н40-Т3/4G(В)</t>
+          <t>ВЗ-Н50-Т2G(В)</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ВЗ-Н40-Т1.1/2G(В)</t>
+          <t>ВЗ-Н12-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ВЗ-Н50-Т1.1/2G(В)</t>
+          <t>ВЗ-Н16-Т3/8G(Н)</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ВЗ-Н50-Т2G(В)</t>
+          <t>ВЗ-Н16-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>НВЗ-Н16-Т3/8G(В)</t>
+          <t>ВЗ-Н20-Т1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>НВЗ-Н16-Т1/2G(В)</t>
+          <t>ВЗ-Н20-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>НВЗ-Н20-Т1/2G(В)</t>
+          <t>ВЗ-Н20-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>НВЗ-Н20-Т3/4G(В)</t>
+          <t>ВЗ-Н20-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>НВЗ-Н25-Т3/4G(В)</t>
+          <t>ВЗ-Н25-Т1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>НВЗ-Н25-Т1G(В)</t>
+          <t>ВЗ-Н25-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>НВЗ-Н32-Т1G(В)</t>
+          <t>ВЗ-Н25-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>НВЗ-Н32-Т1.1/4G(В)</t>
+          <t>ВЗ-Н25-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>НВЗ-Н40-Т1.1/4G(В)</t>
+          <t>ВЗ-Н32-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>НВЗ-Н40-Т1.1/2G(В)</t>
+          <t>ВЗ-Н32-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>НВЗ-Н50-Т1.1/2G(В)</t>
+          <t>ВЗ-Н32-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>НВЗ-Н50-Т2G(В)</t>
+          <t>ВЗ-Н32-Т1.1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н16-Т3/8G(В)</t>
+          <t>ВЗ-Н40-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н16-Т1/2G(В)</t>
+          <t>ВЗ-Н40-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-Т1/2G(В)</t>
+          <t>ВЗ-Н20-Т20 x 1.5М(В)</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н20-Т3/4G(В)</t>
+          <t>НВЗ-Н12-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-Т3/4G(В)</t>
+          <t>НВЗ-Н16-Т3/8G(В)</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н25-Т1G(В)</t>
+          <t>НВЗ-Н16-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-Т1G(В)</t>
+          <t>НВЗ-Н20-Т1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н32-Т1.1/4G(В)</t>
+          <t>НВЗ-Н20-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н40-Т1.1/4G(В)</t>
+          <t>НВЗ-Н20-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н40-Т1.1/2G(В)</t>
+          <t>НВЗ-Н20-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н50-Т1.1/2G(В)</t>
+          <t>НВЗ-Н25-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ЛВЗ-Н50-Т2G(В)</t>
+          <t>НВЗ-Н25-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ВЗ-Б16</t>
+          <t>НВЗ-Н25-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ВЗ-Б20</t>
+          <t>НВЗ-Н32-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ВЗ-Б25</t>
+          <t>НВЗ-Н32-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ВЗ-Б25</t>
+          <t>НВЗ-Н32-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ВЗ-Б32</t>
+          <t>НВЗ-Н32-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ВЗ-Б32</t>
+          <t>НВЗ-Н40-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ВЗ-Б40</t>
+          <t>НВЗ-Н40-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ВЗ-Б50</t>
+          <t>НВЗ-Н50-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ВЗ-Б63</t>
+          <t>НВЗ-Н50-Т2G(В)</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ВЗ-Б75</t>
+          <t>НВЗ-Н12-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ВЗ-Б75</t>
+          <t>НВЗ-Н16-Т3/8G(Н)</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ВЗ-Б90</t>
+          <t>НВЗ-Н16-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ВЗ-Б90</t>
+          <t>НВЗ-Н20-Т1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ВЗ-Б16-Т1/2G(Н)</t>
+          <t>НВЗ-Н20-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ВЗ-Б20-Т1/2G(Н)</t>
+          <t>НВЗ-Н20-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ВЗ-Б20-Т3/4G(Н)</t>
+          <t>НВЗ-Н20-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ВЗ-Б20-Т1G(Н)</t>
+          <t>НВЗ-Н25-Т1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ВЗ-Б25-Т3/4G(Н)</t>
+          <t>НВЗ-Н25-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ВЗ-Б25-Т1G(Н)</t>
+          <t>НВЗ-Н25-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ВЗ-Б25-Т1.1/4G(Н)</t>
+          <t>НВЗ-Н25-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ВЗ-Б32-Т1G(Н)</t>
+          <t>НВЗ-Н32-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ВЗ-Б32-Т1.1/4G(Н)</t>
+          <t>НВЗ-Н32-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ВЗ-Б32-Т1.1/2G(Н)</t>
+          <t>НВЗ-Н32-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ВЗ-Б40-Т1.1/4G(Н)</t>
+          <t>НВЗ-Н32-Т1.1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ВЗ-Б40-Т1.1/2G(Н)</t>
+          <t>НВЗ-Н40-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ВЗ-Б50-Т1.1/2G(Н)</t>
+          <t>НВЗ-Н40-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ВЗ-Б50-Т2G(Н)</t>
+          <t>НВЗ-Н20-Т20 x 1.5М(В)</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ВЗ-Б63-Т2G(Н)</t>
+          <t>ЛВЗ-Н12-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ВЗ-Б75-Т2.1/2G(Н)</t>
+          <t>ЛВЗ-Н16-Т3/8G(В)</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ВЗ-Б75-Т3G(Н)</t>
+          <t>ЛВЗ-Н16-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ВЗ-Б90-Т3G(Н)</t>
+          <t>ЛВЗ-Н20-Т1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ВЗ-Б90-Т3.1/2G(Н)</t>
+          <t>ЛВЗ-Н20-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ВЗ-Б20</t>
+          <t>ЛВЗ-Н20-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ВЗ-Б25</t>
+          <t>ЛВЗ-Н20-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ВЗ-Б32</t>
+          <t>ЛВЗ-Н25-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ВЗ-Б40</t>
+          <t>ЛВЗ-Н25-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>НВЗ-Б16</t>
+          <t>ЛВЗ-Н25-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>НВЗ-Б20</t>
+          <t>ЛВЗ-Н32-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>НВЗ-Б25</t>
+          <t>ЛВЗ-Н32-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>НВЗ-Б25</t>
+          <t>ЛВЗ-Н32-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>НВЗ-Б32</t>
+          <t>ЛВЗ-Н32-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>НВЗ-Б32</t>
+          <t>ЛВЗ-Н40-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>НВЗ-Б40</t>
+          <t>ЛВЗ-Н40-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>НВЗ-Б50</t>
+          <t>ЛВЗ-Н50-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>НВЗ-Б63</t>
+          <t>ЛВЗ-Н50-Т2G(В)</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>НВЗ-Б75</t>
+          <t>ЛВЗ-Н12-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>НВЗ-Б75</t>
+          <t>ЛВЗ-Н16-Т3/8G(Н)</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>НВЗ-Б90</t>
+          <t>ЛВЗ-Н16-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>НВЗ-Б90</t>
+          <t>ЛВЗ-Н20-Т1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>НВЗ-Б20</t>
+          <t>ЛВЗ-Н20-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>НВЗ-Б25</t>
+          <t>ЛВЗ-Н20-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>НВЗ-Б32</t>
+          <t>ЛВЗ-Н20-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>НВЗ-Б40</t>
+          <t>ЛВЗ-Н25-Т1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б16</t>
+          <t>ЛВЗ-Н25-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б20</t>
+          <t>ЛВЗ-Н25-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б25</t>
+          <t>ЛВЗ-Н25-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б25</t>
+          <t>ЛВЗ-Н32-Т1/2G(Н)</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б32</t>
+          <t>ЛВЗ-Н32-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б32</t>
+          <t>ЛВЗ-Н32-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б40</t>
+          <t>ЛВЗ-Н32-Т1.1/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б50</t>
+          <t>ЛВЗ-Н40-Т3/4G(Н)</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б63</t>
+          <t>ЛВЗ-Н40-Т1G(Н)</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б75</t>
+          <t>ЛВЗ-Н20-Т20 x 1.5М(В)</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б75</t>
+          <t>ОВЗ-Н12-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б90</t>
+          <t>ОВЗ-Н16-Т3/8G(В)</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б90</t>
+          <t>ОВЗ-Н16-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б20</t>
+          <t>ОВЗ-Н20-Т1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б25</t>
+          <t>ОВЗ-Н20-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б32</t>
+          <t>ОВЗ-Н20-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ЛВЗ-Б40</t>
+          <t>ОВЗ-Н20-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ВЗ-Н20</t>
+          <t>ОВЗ-Н25-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ВЗ-Н25</t>
+          <t>ОВЗ-Н25-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ВЗ-Н32</t>
+          <t>ОВЗ-Н25-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ВЗ-Н40</t>
+          <t>ОВЗ-Н32-Т1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ВЗ-Н20</t>
+          <t>ОВЗ-Н32-Т3/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ВЗ-Н25</t>
+          <t>ОВЗ-Н32-Т1G(В)</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ВЗ-Н32</t>
+          <t>ОВЗ-Н32-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ВЗ-Н40</t>
+          <t>ОВЗ-Н40-Т1.1/4G(В)</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ВЗ-Н20</t>
+          <t>ОВЗ-Н40-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ВЗ-Н25</t>
+          <t>ОВЗ-Н50-Т1.1/2G(В)</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ВЗ-Н32</t>
+          <t>ОВЗ-Н50-Т2G(В)</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
+          <t>ОВЗ-Н12-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н16-Т3/8G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н16-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н20-Т1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н20-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н20-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н20-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н25-Т1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н25-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н25-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н25-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н32-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н32-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н32-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н32-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н40-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н40-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н20-Т20 x 1.5М(В)</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>ВЗ-Б16</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>ВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>ВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>ВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>ВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>ВЗ-Б50</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>ВЗ-Б63</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>ВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>ВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>ВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>ВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>ВЗ-Б16-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>ВЗ-Б20-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>ВЗ-Б20-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ВЗ-Б20-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>ВЗ-Б25-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>ВЗ-Б25-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>ВЗ-Б25-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>ВЗ-Б32-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ВЗ-Б32-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ВЗ-Б32-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>ВЗ-Б40-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>ВЗ-Б40-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>ВЗ-Б50-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>ВЗ-Б50-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>ВЗ-Б63-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>ВЗ-Б75-Т2.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>ВЗ-Б75-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>ВЗ-Б90-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>ВЗ-Б90-Т3.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>ВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>ВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>ВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>ВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>ВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>ВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>НВЗ-Б16</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>НВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>НВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>НВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>НВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>НВЗ-Б50</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>НВЗ-Б63</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>НВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>НВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>НВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>НВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>НВЗ-Б16-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>НВЗ-Б20-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>НВЗ-Б20-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>НВЗ-Б20-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>НВЗ-Б25-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>НВЗ-Б25-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>НВЗ-Б25-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>НВЗ-Б32-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>НВЗ-Б32-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>НВЗ-Б32-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>НВЗ-Б40-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>НВЗ-Б40-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>НВЗ-Б50-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>НВЗ-Б50-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>НВЗ-Б63-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>НВЗ-Б75-Т2.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>НВЗ-Б75-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>НВЗ-Б90-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>НВЗ-Б90-Т3.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>НВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>НВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>НВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>НВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>НВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>НВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б16</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б50</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б63</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б16-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б20-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б20-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б20-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б25-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б25-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б25-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б32-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б32-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б32-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б40-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б40-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б50-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б50-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б63-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б75-Т2.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б75-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б90-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б90-Т3.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б16</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б50</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б63</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б75</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б90</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б16-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б20-Т1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б20-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б20-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б25-Т3/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б25-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б25-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б32-Т1G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б32-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б32-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б40-Т1.1/4G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б40-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б50-Т1.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б50-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б63-Т2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б75-Т2.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б75-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б90-Т3G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б90-Т3.1/2G(Н)</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б20</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б40</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б25</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>ОВЗ-Б32</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>ВЗ-Н20</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>ВЗ-Н25</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>ВЗ-Н32</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
           <t>ВЗ-Н40</t>
         </is>
       </c>
     </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>НВЗ-Н20</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>НВЗ-Н25</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>НВЗ-Н32</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>НВЗ-Н40</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Н20</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Н25</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Н32</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>ЛВЗ-Н40</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н20</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н25</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н32</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>ОВЗ-Н40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
         <is>
           <t>ПВЗ-Н12</t>
         </is>
       </c>
     </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
         <is>
           <t>ПВЗ-Н16</t>
         </is>
       </c>
     </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
         <is>
           <t>ПВЗ-Н20</t>
         </is>
       </c>
     </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
         <is>
           <t>ПВЗ-Н20</t>
         </is>
       </c>
     </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
         <is>
           <t>ПВЗ-Н25</t>
         </is>
       </c>
     </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
         <is>
           <t>ПВЗ-Н25</t>
         </is>
       </c>
     </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
         <is>
           <t>ПВЗ-Н25</t>
         </is>
       </c>
     </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
         <is>
           <t>ПВЗ-Н32</t>
         </is>
       </c>
     </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
         <is>
           <t>ПВЗ-Н32</t>
         </is>
       </c>
     </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
         <is>
           <t>ПВЗ-Н40</t>
         </is>
       </c>
     </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
         <is>
           <t>ПВЗ-Н50</t>
         </is>
       </c>
     </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
         <is>
           <t>ПВЗ-Н63</t>
         </is>
       </c>
     </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
         <is>
           <t>ПВЗ-Н12</t>
         </is>
       </c>
     </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
         <is>
           <t>ПВЗ-Н16</t>
         </is>
       </c>
     </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
         <is>
           <t>ПВЗ-Н20</t>
         </is>
       </c>
     </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
         <is>
           <t>ПВЗ-Н25</t>
         </is>
       </c>
     </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
         <is>
           <t>ПВЗ-Н25</t>
         </is>
       </c>
     </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
         <is>
           <t>ПВЗ-Н25</t>
         </is>
       </c>
     </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
         <is>
           <t>ПВЗ-Н32</t>
         </is>
       </c>
     </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
         <is>
           <t>ПВЗ-Н32</t>
         </is>
       </c>
     </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
         <is>
           <t>ПВЗ-Н40</t>
         </is>
       </c>
     </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
         <is>
           <t>ПВЗ-Н50</t>
         </is>
       </c>
     </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
         <is>
           <t>ПВЗ-Н63</t>
         </is>
